--- a/data/income_statement/2digits/size/80_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/80_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>80-Security and investigation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>80-Security and investigation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>62932.33869999999</v>
+        <v>64580.49296999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>77822.11328999999</v>
+        <v>81692.90876000001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>90595.19061999999</v>
+        <v>92764.46429999999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>109479.16892</v>
+        <v>111970.49392</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>194323.08175</v>
+        <v>202547.44624</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>197819.40987</v>
+        <v>207924.53756</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>291825.30435</v>
+        <v>315647.79763</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>296039.40478</v>
+        <v>321275.15901</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>369654.66168</v>
+        <v>398103.45083</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>652988.75835</v>
+        <v>708369.1129000001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>623003.53703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>713093.4333100001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>741482.91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>60650.85437</v>
+        <v>61598.95328</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>74367.38127999999</v>
+        <v>78234.609</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>83907.79453</v>
+        <v>85930.16237999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>105216.89728</v>
+        <v>107706.39358</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>182866.42382</v>
+        <v>189865.54009</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>173491.19972</v>
+        <v>182526.65936</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>273317.93695</v>
+        <v>295247.22677</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>286301.04092</v>
+        <v>309856.90285</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>353041.8896699999</v>
+        <v>379479.21792</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>627629.11013</v>
+        <v>681352.6141900001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>599035.87153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>686730.6096900001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>717456.333</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>781.96368</v>
+        <v>1482.01904</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>728.4136000000001</v>
@@ -1043,151 +959,171 @@
         <v>8732.68297</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19130.97596</v>
+        <v>19725.34717</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9299.749980000001</v>
+        <v>10857.65589</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4983.12666</v>
+        <v>5569.64137</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10079.94927</v>
+        <v>10682.58321</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>14198.39254</v>
+        <v>15544.41132</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15436.04637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15838.39103</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>12879.016</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1499.52065</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2726.31841</v>
+        <v>2729.88616</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2786.15934</v>
+        <v>2933.06517</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2273.29107</v>
+        <v>2275.11977</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2723.97496</v>
+        <v>3949.22318</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5197.23419</v>
+        <v>5672.53103</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9207.61742</v>
+        <v>9542.91497</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4755.2372</v>
+        <v>5848.614789999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6532.822740000001</v>
+        <v>7941.649700000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>11161.25568</v>
+        <v>11472.08739</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8531.619129999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10524.43259</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11147.561</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>403.4825300000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>488.22836</v>
+        <v>501.34281</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>191.65518</v>
+        <v>479.27586</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>543.66738</v>
+        <v>545.07346</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1143.84965</v>
+        <v>1171.92975</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1552.61291</v>
+        <v>1771.33214</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1907.46558</v>
+        <v>2140.59214</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1536.72292</v>
+        <v>1965.50972</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1532.99551</v>
+        <v>1648.87334</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5741.94517</v>
+        <v>5890.07231</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3468.400270000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4243.80037</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>11225.196</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>399.37877</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>417.6359</v>
+        <v>430.66546</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>167.51954</v>
+        <v>455.1402200000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>530.6085899999999</v>
+        <v>532.01467</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1022.11073</v>
+        <v>1049.6198</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1435.26862</v>
+        <v>1652.7701</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1793.47998</v>
+        <v>2008.28977</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1412.21843</v>
+        <v>1833.9752</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1481.94716</v>
+        <v>1576.88626</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4916.27758</v>
+        <v>5054.74049</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3288.89466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4052.79537</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10910.62</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3.03689</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>0.4355499999999999</v>
+        <v>0.52044</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>23.46704</v>
@@ -1196,31 +1132,36 @@
         <v>7.9447</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>53.38480999999999</v>
+        <v>53.59858999999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>67.59401</v>
+        <v>68.81175999999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>83.04391</v>
+        <v>101.36068</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>107.20059</v>
+        <v>113.52846</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>17.76081</v>
+        <v>17.86081</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>677.10405</v>
+        <v>684.56902</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>91.90423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>93.7681</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>208.689</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.06687</v>
@@ -1235,7 +1176,7 @@
         <v>5.11409</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>68.35411000000001</v>
+        <v>68.71136</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>49.75028</v>
@@ -1244,217 +1185,247 @@
         <v>30.94169</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>17.3039</v>
+        <v>18.00606</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>33.28754</v>
+        <v>54.12627</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>148.56354</v>
+        <v>150.7628</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>87.60138000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>97.23689999999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>105.887</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>62528.85616999999</v>
+        <v>64177.01044</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>77333.88492999999</v>
+        <v>81191.56595</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>90403.53543999999</v>
+        <v>92285.18844</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>108935.50154</v>
+        <v>111425.42046</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>193179.2321</v>
+        <v>201375.51649</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>196266.79696</v>
+        <v>206153.20542</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>289917.83877</v>
+        <v>313507.20549</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>294502.68186</v>
+        <v>319309.64929</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>368121.66617</v>
+        <v>396454.57749</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>647246.8131799999</v>
+        <v>702479.04059</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>619535.13676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>708849.63294</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>730257.714</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>43743.12840000001</v>
+        <v>44957.33379</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>54601.41817999999</v>
+        <v>57216.70866</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>65995.3982</v>
+        <v>67208.00218000001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>80309.67561000001</v>
+        <v>81953.83518000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>153238.15682</v>
+        <v>157960.38157</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>151276.42132</v>
+        <v>157969.2348</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>229631.70022</v>
+        <v>246023.10447</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>221888.97587</v>
+        <v>239921.95113</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>294683.01797</v>
+        <v>314836.20168</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>512529.3839</v>
+        <v>560289.86782</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>481684.4332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>544113.42138</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>566732.816</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1685.35333</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1239.19961</v>
+        <v>1484.17488</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1493.40439</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5654.32146</v>
+        <v>5976.32781</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3293.35949</v>
+        <v>3305.90412</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4638.620110000001</v>
+        <v>4752.79513</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3918.55861</v>
+        <v>4402.99835</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10679.61196</v>
+        <v>11172.81974</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>10403.81304</v>
+        <v>11179.46115</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>20998.46928</v>
+        <v>21014.63623</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>31216.34319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37394.58654</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33689.273</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>16665.74262</v>
+        <v>17813.67968</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>23967.03754</v>
+        <v>24952.31647</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>33999.87676</v>
+        <v>34500.23001000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>45613.88596</v>
+        <v>46592.38337999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>97892.78581</v>
+        <v>101062.75213</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>87977.18456000001</v>
+        <v>91082.84427</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>144363.38851</v>
+        <v>153187.35166</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>140865.98253</v>
+        <v>150139.6778</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>189036.47078</v>
+        <v>199696.54302</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>379607.09409</v>
+        <v>416218.10653</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>324723.12187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>369482.49995</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>398959.415</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>25237.50883</v>
+        <v>25303.77716</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>29346.32344</v>
+        <v>30731.35972</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>30314.43533</v>
+        <v>31026.68606</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>28670.7233</v>
+        <v>29014.3791</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>51704.21902</v>
+        <v>53243.93282</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>57769.41728</v>
+        <v>61242.39603</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>76887.18281</v>
+        <v>83488.43210000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>69353.01915000001</v>
+        <v>77610.01191999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>94274.54320999999</v>
+        <v>102676.94298</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>107159.07138</v>
+        <v>118204.54874</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>124058.41401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>134920.49823</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>131116.825</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>154.52362</v>
@@ -1475,103 +1446,118 @@
         <v>891.19937</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4462.57029</v>
+        <v>4944.322359999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>990.36223</v>
+        <v>999.4416699999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>968.19094</v>
+        <v>1283.25453</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4764.74915</v>
+        <v>4852.57632</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1686.55413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2315.83666</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2967.303</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>18785.72777</v>
+        <v>19219.67665</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>22732.46675</v>
+        <v>23974.85729</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>24408.13724</v>
+        <v>25077.18626</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>28625.82593</v>
+        <v>29471.58528</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>39941.07528</v>
+        <v>43415.13492</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>44990.37564</v>
+        <v>48183.97062000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>60286.13855</v>
+        <v>67484.10102</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>72613.70599000002</v>
+        <v>79387.69816</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>73438.6482</v>
+        <v>81618.37581</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>134717.42928</v>
+        <v>142189.17277</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>137850.70356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>164736.21156</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>163524.898</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>19699.38995</v>
+        <v>20234.79103</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>24063.95298</v>
+        <v>25310.78449</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>25440.57838</v>
+        <v>26395.65231</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>31633.74874</v>
+        <v>33250.93865</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>39553.26215</v>
+        <v>43894.41518</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>44853.2899</v>
+        <v>48949.80212</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>54570.98462</v>
+        <v>63505.8832</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>72376.35221</v>
+        <v>85277.43488</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>72247.54857000001</v>
+        <v>82155.57602000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>120772.21437</v>
+        <v>131086.47798</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>139877.62082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>163883.4377</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>153464.669</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10.89125</v>
@@ -1595,178 +1581,203 @@
         <v>0.3307</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>31.65605</v>
+        <v>168.57187</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0.378</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>242.69581</v>
+        <v>263.69581</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4.70126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>446.00994</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>335.851</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2173.769109999999</v>
+        <v>2441.34223</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1334.12009</v>
+        <v>1425.55296</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2354.59251</v>
+        <v>2363.71161</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2926.45553</v>
+        <v>3215.62817</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4921.30094</v>
+        <v>5555.85138</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5172.19557</v>
+        <v>5532.03613</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6692.79073</v>
+        <v>7770.378580000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10014.83827</v>
+        <v>10568.63911</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9825.78254</v>
+        <v>10768.35153</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>22853.59999</v>
+        <v>24228.24608</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20030.00502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>24070.73132</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>20292.978</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>17514.72959</v>
+        <v>17782.55755</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>22725.82975</v>
+        <v>23881.22839</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>22993.39788</v>
+        <v>23939.35271</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>28649.90473</v>
+        <v>29977.922</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>34628.87309</v>
+        <v>38335.47568</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>39664.86518</v>
+        <v>43401.53684</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>47877.86319</v>
+        <v>55735.17392</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>62329.85789000001</v>
+        <v>74540.22390000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>62421.38802999999</v>
+        <v>71386.84649000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>97675.91856999999</v>
+        <v>106594.53609</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>119842.91454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>139366.69644</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>132835.84</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-913.66218</v>
+        <v>-1015.11438</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1331.48623</v>
+        <v>-1335.9272</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1032.44114</v>
+        <v>-1318.46605</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3007.92281</v>
+        <v>-3779.35337</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>387.8131299999999</v>
+        <v>-479.2802600000002</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>137.0857400000002</v>
+        <v>-765.8315</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5715.153929999999</v>
+        <v>3978.217819999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>237.3537800000001</v>
+        <v>-5889.736720000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1191.09963</v>
+        <v>-537.20021</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13945.21491</v>
+        <v>11102.69479</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-2026.917259999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>852.7738600000031</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10060.229</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>312.93533</v>
+        <v>313.02266</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>404.30674</v>
+        <v>421.97546</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>801.47504</v>
+        <v>1409.91874</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>870.12364</v>
+        <v>1147.27864</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2114.92442</v>
+        <v>3053.68037</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2048.79483</v>
+        <v>2491.65129</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2500.49699</v>
+        <v>5297.80123</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2103.87606</v>
+        <v>5894.33429</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2809.43806</v>
+        <v>5292.58198</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9876.242189999999</v>
+        <v>15193.21744</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7470.5188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19257.87438</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26305.779</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>9.51374</v>
@@ -1787,7 +1798,7 @@
         <v>36.74844</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>129.83005</v>
+        <v>132.87956</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>83.45632000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1826,10 +1842,10 @@
         <v>71.42832000000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>44.30519</v>
+        <v>57.39680000000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>61.62949</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>212.87056</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>133.36154</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>710.125</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>48.87478</v>
+        <v>48.96211</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>100.44403</v>
+        <v>104.58175</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>234.96934</v>
+        <v>566.53187</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>191.60722</v>
+        <v>328.6425</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>246.21852</v>
+        <v>527.07437</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>348.26925</v>
+        <v>420.64586</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>248.84328</v>
+        <v>661.15349</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>347.08297</v>
+        <v>567.91292</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>443.93596</v>
+        <v>906.68534</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1131.63607</v>
+        <v>2079.00106</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1462.36344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2368.54098</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1911.528</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>7.27173</v>
@@ -1901,28 +1927,33 @@
         <v>6.71302</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>43.97901</v>
+        <v>60.88901</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>42.4066</v>
+        <v>52.4066</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>36.67503</v>
+        <v>85.46774000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>41.17959</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4.680260000000001</v>
+        <v>14.68026</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>30.02097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>115.31922</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>67.161</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1.61758</v>
@@ -1934,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20.85801</v>
+        <v>23.59391</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>0</v>
@@ -1949,19 +1980,24 @@
         <v>28.60495</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>49.33374</v>
+        <v>167.10791</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>107.96733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>107.96833</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>179.904</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1.8054</v>
@@ -1970,13 +2006,13 @@
         <v>1.86857</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.70873</v>
+        <v>2.0238</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>38.72259</v>
+        <v>47.46367</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5.79404</v>
+        <v>6.441260000000001</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>4.8894</v>
@@ -1985,61 +2021,71 @@
         <v>15.04428</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6.376060000000001</v>
+        <v>40.92636</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.14896</v>
+        <v>59.31102</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>472.69532</v>
+        <v>472.75648</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>239.6577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>355.58211</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>101.048</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>113.96897</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>152.23938</v>
+        <v>165.57644</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>164.01689</v>
+        <v>439.58299</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>298.26524</v>
+        <v>415.27191</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>809.6790500000001</v>
+        <v>1416.59423</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>650.56763</v>
+        <v>814.33777</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1301.4908</v>
+        <v>2495.22324</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>750.98067</v>
+        <v>1077.77243</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1220.59574</v>
+        <v>2996.27231</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7245.22658</v>
+        <v>11265.10267</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3439.72687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>13111.9335</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>20009.226</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.16583</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>9.99051</v>
+        <v>10.55798</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>8.46622</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.76603</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>20.795</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>126.95127</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>146.41568</v>
+        <v>146.60962</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>220.18845</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>300.5454099999999</v>
+        <v>312.18148</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>815.53574</v>
+        <v>865.8734400000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>882.32355</v>
+        <v>1071.55579</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>718.5372199999999</v>
+        <v>1883.65769</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>848.58176</v>
+        <v>3946.44578</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>866.0267</v>
+        <v>892.6288499999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1003.29252</v>
+        <v>1342.96553</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2048.95472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3056.70247</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3294.802</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>200.8666</v>
+        <v>201.49342</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>319.81124</v>
+        <v>320.53625</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>227.58724</v>
+        <v>465.17358</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>494.58304</v>
+        <v>634.8516399999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1136.45802</v>
+        <v>2068.02008</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1695.39979</v>
+        <v>1900.34483</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2480.01904</v>
+        <v>3400.81356</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2432.733099999999</v>
+        <v>2585.52397</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>892.2059</v>
+        <v>2141.07055</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8815.668440000001</v>
+        <v>10816.67241</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4409.58266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15828.51417</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>31813.987</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1.92638</v>
@@ -2204,37 +2270,42 @@
         <v>10.03679</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>15.63585</v>
+        <v>19.21592</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>43.09266</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>17.16411</v>
+        <v>24.86952</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>26.82268</v>
+        <v>30.37903</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>488.49388</v>
+        <v>493.61033</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>35.72718</v>
+        <v>39.45666</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11.14462</v>
+        <v>16.78535</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>146.22431</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>279.61522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>348.90711</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>459.619</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>53.62694999999999</v>
@@ -2255,7 +2326,7 @@
         <v>385.82883</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>15</v>
+        <v>52.06096</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>240.20202</v>
@@ -2264,16 +2335,21 @@
         <v>33.59196</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>343.9280699999999</v>
+        <v>736.94125</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>498.06389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>824.40585</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>818.5940000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>10.24257</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.907</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>71.18469</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>222.33098</v>
+        <v>223.05599</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>184.13542</v>
+        <v>417.9195</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>268.182</v>
+        <v>364.8483</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>799.8133</v>
+        <v>1723.6697</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>777.0854499999999</v>
+        <v>978.44889</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1822.94363</v>
+        <v>2458.50813</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>822.3154000000001</v>
+        <v>930.63579</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>728.4227</v>
+        <v>1967.92249</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7830.57221</v>
+        <v>9438.56295</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3228.36974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14226.75377</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>30223.561</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>10.20169</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>17.969</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>63.92689</v>
+        <v>64.55371</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>59.61592</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>26.7238</v>
+        <v>26.94599</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>140.38232</v>
+        <v>183.98462</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>319.21361</v>
+        <v>319.21386</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>505.3459</v>
+        <v>505.37115</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>153.32454</v>
+        <v>396.37715</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>422.581</v>
+        <v>463.322</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>119.04661</v>
+        <v>122.77074</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>485.76009</v>
+        <v>485.76014</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>393.29124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>418.20487</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>292.337</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>415.49155</v>
+        <v>418.71538</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>451.1942099999999</v>
+        <v>566.0964799999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>802.99675</v>
+        <v>1144.0987</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>813.15336</v>
+        <v>994.6837999999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1345.29227</v>
+        <v>1682.91781</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1258.73176</v>
+        <v>2210.8369</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1538.23055</v>
+        <v>2600.79195</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1651.23681</v>
+        <v>2666.00213</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1874.75219</v>
+        <v>3246.79423</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7545.89354</v>
+        <v>8699.876679999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6649.90995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9800.596609999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8314.335999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>409.80711</v>
+        <v>413.03094</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>414.77954</v>
+        <v>529.68181</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>751.56003</v>
+        <v>1092.66198</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>759.6476699999999</v>
+        <v>926.31692</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1256.29802</v>
+        <v>1567.69656</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1211.49942</v>
+        <v>2113.128</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1515.61272</v>
+        <v>2426.50206</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1620.10619</v>
+        <v>2466.24127</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1844.77256</v>
+        <v>3216.8146</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7333.89011</v>
+        <v>8475.92499</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6564.049440000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9155.00814</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8198.603999999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5.68444</v>
@@ -2558,112 +2669,127 @@
         <v>51.43672</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>53.50569</v>
+        <v>68.36688000000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>88.99424999999999</v>
+        <v>115.22125</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>47.23233999999999</v>
+        <v>97.70890000000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>22.61783</v>
+        <v>174.28989</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>31.13062</v>
+        <v>199.76086</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>29.97963</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>212.00343</v>
+        <v>223.95169</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>85.86050999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>645.5884700000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>115.732</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1217.085</v>
+        <v>-1322.30052</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1698.18494</v>
+        <v>-1800.58447</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1261.55009</v>
+        <v>-1517.81959</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-3445.53557</v>
+        <v>-4261.61017</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>20.98725999999963</v>
+        <v>-1176.53778</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-768.2509800000007</v>
+        <v>-2385.361939999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4197.40133</v>
+        <v>3274.41354</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1742.74007</v>
+        <v>-5246.92853</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1233.579599999999</v>
+        <v>-632.4830100000007</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7459.895119999999</v>
+        <v>6779.36314</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-5615.89107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5518.46254</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-3762.315</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>284.46015</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>375.00332</v>
+        <v>501.0506</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>336.71774</v>
+        <v>339.0785</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>619.49003</v>
+        <v>625.6323500000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1383.12134</v>
+        <v>1637.56233</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5379.077179999999</v>
+        <v>7358.93217</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1108.15656</v>
+        <v>1901.64976</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1535.73811</v>
+        <v>1725.50763</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2245.3912</v>
+        <v>2708.80092</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4322.98845</v>
+        <v>4540.59237</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6386.74979</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8449.130570000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8816.436</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.6</v>
@@ -2696,91 +2822,106 @@
         <v>115.16496</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2.84919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>107.12626</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>283.86015</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>367.8645799999999</v>
+        <v>493.91186</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>336.39541</v>
+        <v>338.75617</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>612.9095500000001</v>
+        <v>619.05187</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1128.86531</v>
+        <v>1383.3063</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5372.03965</v>
+        <v>7351.89464</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1093.15656</v>
+        <v>1886.64976</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1528.38464</v>
+        <v>1718.15416</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2242.94593</v>
+        <v>2706.35565</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4207.823490000001</v>
+        <v>4425.42741</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6383.9006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8342.00431</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8764.636</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>896.25871</v>
+        <v>923.47581</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>644.0051999999999</v>
+        <v>777.09645</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>5140.417530000001</v>
+        <v>6204.49717</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>970.73215</v>
+        <v>1126.68872</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3714.70119</v>
+        <v>4721.24858</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7840.66528</v>
+        <v>8583.482300000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4114.92</v>
+        <v>4400.65034</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7357.413189999999</v>
+        <v>9478.35226</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2425.93785</v>
+        <v>3653.09629</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14761.51039</v>
+        <v>15067.50648</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18270.45686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19906.45806</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9029.152</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2798,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2.49091</v>
+        <v>6.97363</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0</v>
+        <v>3.61608</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>3.94982</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>29.31918</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>9.445</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>133.6989</v>
@@ -2828,190 +2974,213 @@
         <v>57.41181</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>159.25588</v>
+        <v>1101.20212</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>103.77188</v>
+        <v>118.14924</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2355.15901</v>
+        <v>2356.35447</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1769.01671</v>
+        <v>2347.75597</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6.722779999999999</v>
+        <v>45.80224</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>76.81754000000001</v>
+        <v>364.50121</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>104.60397</v>
+        <v>812.4894499999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>92.03231</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2899.2193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2909.46476</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>71.839</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>762.5598100000001</v>
+        <v>789.7769099999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>556.0070999999999</v>
+        <v>689.0983500000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4981.15061</v>
+        <v>5103.284009999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>844.9825999999999</v>
+        <v>986.56181</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1359.54218</v>
+        <v>2364.89411</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6069.15766</v>
+        <v>6228.752699999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4108.19722</v>
+        <v>4351.232019999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7276.64583</v>
+        <v>9109.901230000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2298.53366</v>
+        <v>2817.80662</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>14630.97679</v>
+        <v>14936.97288</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15341.91838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16967.67412</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8947.868</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1828.88356</v>
+        <v>-1961.31618</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1967.18682</v>
+        <v>-2076.63032</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6065.24988</v>
+        <v>-7383.23826</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3796.77769</v>
+        <v>-4762.66654</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-2310.59259</v>
+        <v>-4260.22403</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-3229.83908</v>
+        <v>-3609.91207</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1190.637890000001</v>
+        <v>775.4129600000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7564.415150000001</v>
+        <v>-12999.77316</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1053.03295</v>
+        <v>-1576.77838</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2978.626820000001</v>
+        <v>-3747.550970000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-17499.59814</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-16975.79003</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-3975.031</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>825.54764</v>
+        <v>835.42312</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>703.71815</v>
+        <v>716.94836</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>958.2528900000001</v>
+        <v>983.86097</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1120.57232</v>
+        <v>1145.93563</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1576.03244</v>
+        <v>1744.23696</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2223.38772</v>
+        <v>2855.69479</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2204.5586</v>
+        <v>2564.223320000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2566.67503</v>
+        <v>2794.6143</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2610.08666</v>
+        <v>3006.85327</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6459.03398</v>
+        <v>6975.744249999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5785.18992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>8200.89357</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>8680.736999999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2654.4312</v>
+        <v>-2796.7393</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2670.90497</v>
+        <v>-2793.57868</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-7023.50277</v>
+        <v>-8367.09923</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4917.35001</v>
+        <v>-5908.60217</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3886.62503</v>
+        <v>-6004.46099</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-5453.226799999999</v>
+        <v>-6465.606859999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1013.92071</v>
+        <v>-1788.81036</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-10131.09018</v>
+        <v>-15794.38746</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1557.05371</v>
+        <v>-4583.63165</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-9437.6608</v>
+        <v>-10723.29522</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-23284.78806</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-25176.6836</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12655.768</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>981</v>
+        <v>1031</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1093</v>
+        <v>1162</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1143</v>
+        <v>1237</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1170</v>
+        <v>1280</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1348</v>
+        <v>1473</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1536</v>
+        <v>1676</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1859</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>